--- a/Vacinacao Covid_2022.xlsx
+++ b/Vacinacao Covid_2022.xlsx
@@ -14,6 +14,7 @@
   </bookViews>
   <sheets>
     <sheet name="Por estado" sheetId="4" r:id="rId1"/>
+    <sheet name="Percentuais por regioes" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="43">
   <si>
     <t>Estado</t>
   </si>
@@ -152,6 +153,15 @@
   </si>
   <si>
     <t>(Proporcional)</t>
+  </si>
+  <si>
+    <t>totalmente imunizados</t>
+  </si>
+  <si>
+    <t>parcialmente imunizados</t>
+  </si>
+  <si>
+    <t>não imunizados</t>
   </si>
 </sst>
 </file>
@@ -1336,4 +1346,98 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78.8603192434342</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.29821739233973</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.841463364226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81.0450101497094</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.56066020921596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.3943296410746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70.3526658226088</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.17809511604056</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.4692390613507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n">
+        <v>72.7629253558068</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.0759146396087</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.1611600045845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="n">
+        <v>65.9794659614627</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.80018494890227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.2203490896351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.8" bottom="0.8" header="0.3" footer="0.3"/>
+</worksheet>
 </file>